--- a/data/pca/factorExposure/factorExposure_2019-06-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-06-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.1178684853823127</v>
+        <v>-0.07892043610857449</v>
       </c>
       <c r="C2">
-        <v>0.01457734466000975</v>
+        <v>-0.01691023150154024</v>
       </c>
       <c r="D2">
-        <v>0.08100104723404236</v>
+        <v>0.03568662347910144</v>
       </c>
       <c r="E2">
-        <v>-0.07531115105054335</v>
+        <v>0.1357893130810164</v>
       </c>
       <c r="F2">
-        <v>0.05741699764164368</v>
+        <v>0.006162255783281864</v>
       </c>
       <c r="G2">
-        <v>-0.07098619745621017</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.0778624816701365</v>
+      </c>
+      <c r="H2">
+        <v>0.07585417091024019</v>
+      </c>
+      <c r="I2">
+        <v>0.07762983246905285</v>
+      </c>
+      <c r="J2">
+        <v>0.03844080953024063</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.2022721048641923</v>
+        <v>-0.158599438130149</v>
       </c>
       <c r="C3">
-        <v>-0.08701344644527946</v>
+        <v>-0.1017730039572732</v>
       </c>
       <c r="D3">
-        <v>0.09182312072064269</v>
+        <v>-0.04323346540688343</v>
       </c>
       <c r="E3">
-        <v>-0.3100321275019034</v>
+        <v>0.3671055349546175</v>
       </c>
       <c r="F3">
-        <v>-0.0213484696734116</v>
+        <v>0.1121698029767112</v>
       </c>
       <c r="G3">
-        <v>-0.3271037184378531</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.01833616477036846</v>
+      </c>
+      <c r="H3">
+        <v>0.2840844775708328</v>
+      </c>
+      <c r="I3">
+        <v>0.1840949592641971</v>
+      </c>
+      <c r="J3">
+        <v>-0.07339978423135661</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.09416796205877263</v>
+        <v>-0.0730984946692166</v>
       </c>
       <c r="C4">
-        <v>-0.01850842627739214</v>
+        <v>-0.03144780157026526</v>
       </c>
       <c r="D4">
-        <v>0.0449225683151675</v>
+        <v>0.02372308298737735</v>
       </c>
       <c r="E4">
-        <v>-0.07773335228480129</v>
+        <v>0.08825659783692499</v>
       </c>
       <c r="F4">
-        <v>0.03746271297698173</v>
+        <v>0.05227722952243193</v>
       </c>
       <c r="G4">
-        <v>-0.02621775993907282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.03405102919987173</v>
+      </c>
+      <c r="H4">
+        <v>0.04015297227792454</v>
+      </c>
+      <c r="I4">
+        <v>0.01595760781243856</v>
+      </c>
+      <c r="J4">
+        <v>-0.04054000291034167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.009759161528292259</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.004849859127811898</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.002021483457847327</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.007181349032786004</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.0007174005985053128</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01350351020063168</v>
+      </c>
+      <c r="H6">
+        <v>0.002600651246859501</v>
+      </c>
+      <c r="I6">
+        <v>0.002280985939528993</v>
+      </c>
+      <c r="J6">
+        <v>-0.00086639993245318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.0410949705793202</v>
+        <v>-0.0341684160240862</v>
       </c>
       <c r="C7">
-        <v>-0.003596252075626918</v>
+        <v>-0.01544721107509037</v>
       </c>
       <c r="D7">
-        <v>0.05575780476251331</v>
+        <v>0.01728838620631005</v>
       </c>
       <c r="E7">
-        <v>-0.05465062896912416</v>
+        <v>0.06247210836561337</v>
       </c>
       <c r="F7">
-        <v>-0.05506463188403366</v>
+        <v>0.02624364302457137</v>
       </c>
       <c r="G7">
-        <v>-0.01949546878567459</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.0179116336771127</v>
+      </c>
+      <c r="H7">
+        <v>0.0466673772739588</v>
+      </c>
+      <c r="I7">
+        <v>-0.003290828917383007</v>
+      </c>
+      <c r="J7">
+        <v>-0.02696066300714734</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.03902808480606247</v>
+        <v>-0.03034782430502054</v>
       </c>
       <c r="C8">
-        <v>-0.03386612519234335</v>
+        <v>-0.03705007838239297</v>
       </c>
       <c r="D8">
-        <v>0.02676005133063049</v>
+        <v>0.008715693827670257</v>
       </c>
       <c r="E8">
-        <v>-0.06665985345462569</v>
+        <v>0.07916894827246854</v>
       </c>
       <c r="F8">
-        <v>-0.004177620557490803</v>
+        <v>0.04412638565245315</v>
       </c>
       <c r="G8">
-        <v>-0.04743844947737973</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.004114023777969736</v>
+      </c>
+      <c r="H8">
+        <v>0.05544316630304619</v>
+      </c>
+      <c r="I8">
+        <v>0.03619332870094708</v>
+      </c>
+      <c r="J8">
+        <v>-0.0183625700101873</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.08358506468022159</v>
+        <v>-0.0623730547203297</v>
       </c>
       <c r="C9">
-        <v>-0.01998906882920634</v>
+        <v>-0.03125519098095853</v>
       </c>
       <c r="D9">
-        <v>0.05483505456638178</v>
+        <v>0.02573896942032396</v>
       </c>
       <c r="E9">
-        <v>-0.06592315743924991</v>
+        <v>0.08348138968563221</v>
       </c>
       <c r="F9">
-        <v>0.02141365336474988</v>
+        <v>0.0566977020244448</v>
       </c>
       <c r="G9">
-        <v>-0.0235739746473638</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.02264255692125774</v>
+      </c>
+      <c r="H9">
+        <v>0.03452404008467821</v>
+      </c>
+      <c r="I9">
+        <v>0.008210445464299299</v>
+      </c>
+      <c r="J9">
+        <v>-0.007006173360624538</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.02227103335344465</v>
+        <v>-0.006101199652870092</v>
       </c>
       <c r="C10">
-        <v>0.1621039539272299</v>
+        <v>0.157115921641218</v>
       </c>
       <c r="D10">
-        <v>0.01150720054459409</v>
+        <v>-0.01727443571648174</v>
       </c>
       <c r="E10">
-        <v>-0.04750114055024423</v>
+        <v>0.05204120781125691</v>
       </c>
       <c r="F10">
-        <v>-0.005201654597734685</v>
+        <v>0.00565517732354852</v>
       </c>
       <c r="G10">
-        <v>0.01156421870835499</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.01111151045524711</v>
+      </c>
+      <c r="H10">
+        <v>-0.02200195925504684</v>
+      </c>
+      <c r="I10">
+        <v>0.1110144232602279</v>
+      </c>
+      <c r="J10">
+        <v>-0.05800599204159862</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.05963637439612153</v>
+        <v>-0.05108312087968743</v>
       </c>
       <c r="C11">
-        <v>0.001996469259887369</v>
+        <v>-0.01667263129166136</v>
       </c>
       <c r="D11">
-        <v>0.009833464324914377</v>
+        <v>0.00529914008407479</v>
       </c>
       <c r="E11">
-        <v>-0.04407760712626703</v>
+        <v>0.04779074663629164</v>
       </c>
       <c r="F11">
-        <v>-0.003462405233586433</v>
+        <v>0.002087167948400773</v>
       </c>
       <c r="G11">
-        <v>0.01181723459793735</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.0007054634789669983</v>
+      </c>
+      <c r="H11">
+        <v>0.02048718025514955</v>
+      </c>
+      <c r="I11">
+        <v>-0.01182328630351544</v>
+      </c>
+      <c r="J11">
+        <v>0.004189245176289172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.04928155050883452</v>
+        <v>-0.04879293614535716</v>
       </c>
       <c r="C12">
-        <v>-0.001914729888227078</v>
+        <v>-0.01640428985474271</v>
       </c>
       <c r="D12">
-        <v>0.008718075963635595</v>
+        <v>0.007921967117143661</v>
       </c>
       <c r="E12">
-        <v>-0.02380524964565089</v>
+        <v>0.0255503339792288</v>
       </c>
       <c r="F12">
-        <v>-0.009070276462459176</v>
+        <v>0.01813320297009372</v>
       </c>
       <c r="G12">
-        <v>0.0001415508247230368</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.003820134287346015</v>
+      </c>
+      <c r="H12">
+        <v>0.01061475854081476</v>
+      </c>
+      <c r="I12">
+        <v>-0.01935861980488176</v>
+      </c>
+      <c r="J12">
+        <v>0.006777914425887066</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.05625911565827209</v>
+        <v>-0.03882723723617207</v>
       </c>
       <c r="C13">
-        <v>-0.01672291020997216</v>
+        <v>-0.02335694170781253</v>
       </c>
       <c r="D13">
-        <v>0.03446826305708053</v>
+        <v>0.00466089035569452</v>
       </c>
       <c r="E13">
-        <v>-0.106883019066422</v>
+        <v>0.1062502545486947</v>
       </c>
       <c r="F13">
-        <v>0.00221494788720502</v>
+        <v>0.005372622767015526</v>
       </c>
       <c r="G13">
-        <v>-0.01869342717826737</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.001783638751652402</v>
+      </c>
+      <c r="H13">
+        <v>0.05286359752482733</v>
+      </c>
+      <c r="I13">
+        <v>0.03608483787582514</v>
+      </c>
+      <c r="J13">
+        <v>0.01836125855629243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.03804330170448397</v>
+        <v>-0.02867268447467852</v>
       </c>
       <c r="C14">
-        <v>-0.006761849550484944</v>
+        <v>-0.01607984832219474</v>
       </c>
       <c r="D14">
-        <v>0.0256450147559481</v>
+        <v>0.02070310883547466</v>
       </c>
       <c r="E14">
-        <v>-0.01632737080219855</v>
+        <v>0.03789983050699147</v>
       </c>
       <c r="F14">
-        <v>-0.006367041240220946</v>
+        <v>0.01898001367357369</v>
       </c>
       <c r="G14">
-        <v>-0.03252374868703006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.01310634454200585</v>
+      </c>
+      <c r="H14">
+        <v>0.06111125573130618</v>
+      </c>
+      <c r="I14">
+        <v>0.0235956531181341</v>
+      </c>
+      <c r="J14">
+        <v>-0.009832243213943105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.0524220496814494</v>
+        <v>-0.04304421252473026</v>
       </c>
       <c r="C16">
-        <v>-0.01545987061795279</v>
+        <v>-0.02536093550901677</v>
       </c>
       <c r="D16">
-        <v>-0.003243280991201149</v>
+        <v>-0.001302156070879374</v>
       </c>
       <c r="E16">
-        <v>-0.04902518164454345</v>
+        <v>0.04554243039790865</v>
       </c>
       <c r="F16">
-        <v>-0.00396606103266674</v>
+        <v>0.005984896300367383</v>
       </c>
       <c r="G16">
-        <v>0.003676145412002825</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.005343327692583237</v>
+      </c>
+      <c r="H16">
+        <v>0.02105989042533186</v>
+      </c>
+      <c r="I16">
+        <v>-0.01325563327063898</v>
+      </c>
+      <c r="J16">
+        <v>-0.0001953608749314942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>-0.04445633113351204</v>
+        <v>-0.04627126542917783</v>
       </c>
       <c r="C19">
-        <v>-0.02919178126985376</v>
+        <v>-0.03445363783613661</v>
       </c>
       <c r="D19">
-        <v>0.02882987613982097</v>
+        <v>0.007789959783694202</v>
       </c>
       <c r="E19">
-        <v>-0.07313230560925302</v>
+        <v>0.09335567846139108</v>
       </c>
       <c r="F19">
-        <v>-0.01046665179999338</v>
+        <v>0.02786772863039345</v>
       </c>
       <c r="G19">
-        <v>-0.03806523891333143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.007988398987961038</v>
+      </c>
+      <c r="H19">
+        <v>0.07334150550953046</v>
+      </c>
+      <c r="I19">
+        <v>0.07029381961647359</v>
+      </c>
+      <c r="J19">
+        <v>0.007237356464846887</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.03294649317381571</v>
+        <v>-0.0174964965365814</v>
       </c>
       <c r="C20">
-        <v>-0.03373908519453712</v>
+        <v>-0.03387857140763324</v>
       </c>
       <c r="D20">
-        <v>0.02915234553501682</v>
+        <v>0.01224832738517068</v>
       </c>
       <c r="E20">
-        <v>-0.06752113303495136</v>
+        <v>0.07434741902412506</v>
       </c>
       <c r="F20">
-        <v>-0.0199633640631858</v>
+        <v>0.0324856776776497</v>
       </c>
       <c r="G20">
-        <v>-0.04412779261876654</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01241642122555751</v>
+      </c>
+      <c r="H20">
+        <v>0.07799784511254595</v>
+      </c>
+      <c r="I20">
+        <v>0.02212932647435964</v>
+      </c>
+      <c r="J20">
+        <v>-0.02261520092980002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.03607005515183842</v>
+        <v>-0.01676507047716726</v>
       </c>
       <c r="C21">
-        <v>-0.0186062253319313</v>
+        <v>-0.02656157195705296</v>
       </c>
       <c r="D21">
-        <v>0.02720433931266006</v>
+        <v>-0.01078113680834472</v>
       </c>
       <c r="E21">
-        <v>-0.08892393644711809</v>
+        <v>0.08457057215137842</v>
       </c>
       <c r="F21">
-        <v>0.02502234101958136</v>
+        <v>0.02425579647685177</v>
       </c>
       <c r="G21">
-        <v>-0.01966871549744469</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.01334870127261427</v>
+      </c>
+      <c r="H21">
+        <v>0.04249543459881392</v>
+      </c>
+      <c r="I21">
+        <v>0.01401997470623929</v>
+      </c>
+      <c r="J21">
+        <v>0.02717428653315471</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.04646268387822592</v>
+        <v>-0.04105210059591793</v>
       </c>
       <c r="C24">
-        <v>-0.009873612880817942</v>
+        <v>-0.01586741392003233</v>
       </c>
       <c r="D24">
-        <v>0.01615984718925143</v>
+        <v>0.005120850036817673</v>
       </c>
       <c r="E24">
-        <v>-0.05330575787122104</v>
+        <v>0.049475761729243</v>
       </c>
       <c r="F24">
-        <v>-0.007325820244982629</v>
+        <v>0.006077210552712711</v>
       </c>
       <c r="G24">
-        <v>0.01084970227557401</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.01206838327128735</v>
+      </c>
+      <c r="H24">
+        <v>0.01626626011132725</v>
+      </c>
+      <c r="I24">
+        <v>-0.009583768032295473</v>
+      </c>
+      <c r="J24">
+        <v>-0.001231282124342238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.05069208871479081</v>
+        <v>-0.04420648921515566</v>
       </c>
       <c r="C25">
-        <v>0.002198728934361624</v>
+        <v>-0.01641375812411921</v>
       </c>
       <c r="D25">
-        <v>0.01052944929224457</v>
+        <v>0.004737419470255227</v>
       </c>
       <c r="E25">
-        <v>-0.04073391028219785</v>
+        <v>0.046554449848653</v>
       </c>
       <c r="F25">
-        <v>-0.005224669810969075</v>
+        <v>0.00893524952386762</v>
       </c>
       <c r="G25">
-        <v>0.01477383083118008</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.006117374217411844</v>
+      </c>
+      <c r="H25">
+        <v>0.008596040698477471</v>
+      </c>
+      <c r="I25">
+        <v>-0.01376503283894712</v>
+      </c>
+      <c r="J25">
+        <v>0.01003134674906849</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.001793707904177147</v>
+        <v>-0.007164796820024685</v>
       </c>
       <c r="C26">
-        <v>-0.0195274987329366</v>
+        <v>-0.02016876073544125</v>
       </c>
       <c r="D26">
-        <v>0.0250314672792302</v>
+        <v>-0.003639797499147726</v>
       </c>
       <c r="E26">
-        <v>-0.04878576565149326</v>
+        <v>0.05742184954201102</v>
       </c>
       <c r="F26">
-        <v>0.008159878763694594</v>
+        <v>-0.003558542416197909</v>
       </c>
       <c r="G26">
-        <v>-0.01173978894328722</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.003233862906208026</v>
+      </c>
+      <c r="H26">
+        <v>0.03461018523345854</v>
+      </c>
+      <c r="I26">
+        <v>-0.002975600762439802</v>
+      </c>
+      <c r="J26">
+        <v>-0.009967418521365996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>-0.1093301927700881</v>
+        <v>-0.08923767704197171</v>
       </c>
       <c r="C27">
-        <v>-0.003269785179018474</v>
+        <v>-0.01731564637885555</v>
       </c>
       <c r="D27">
-        <v>0.06034179697564959</v>
+        <v>0.02936454418231128</v>
       </c>
       <c r="E27">
-        <v>-0.100993370936727</v>
+        <v>0.08976717313685431</v>
       </c>
       <c r="F27">
-        <v>-0.006865742691260076</v>
+        <v>0.04195355054293678</v>
       </c>
       <c r="G27">
-        <v>0.01676162400020509</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.003345486715017216</v>
+      </c>
+      <c r="H27">
+        <v>0.01055981747160808</v>
+      </c>
+      <c r="I27">
+        <v>-0.001090669036138325</v>
+      </c>
+      <c r="J27">
+        <v>-0.0164449893995459</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.02724550550259533</v>
+        <v>-0.01287805540615065</v>
       </c>
       <c r="C28">
-        <v>0.232333597867317</v>
+        <v>0.2239888131255824</v>
       </c>
       <c r="D28">
-        <v>-0.005428540228935863</v>
+        <v>-0.02515174107193586</v>
       </c>
       <c r="E28">
-        <v>-0.03753336266368721</v>
+        <v>0.04094919045362713</v>
       </c>
       <c r="F28">
-        <v>0.001088564773425995</v>
+        <v>0.002897200136804293</v>
       </c>
       <c r="G28">
-        <v>0.03593615224543192</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.01464289274494069</v>
+      </c>
+      <c r="H28">
+        <v>-0.04501013086873257</v>
+      </c>
+      <c r="I28">
+        <v>0.1459766241790365</v>
+      </c>
+      <c r="J28">
+        <v>-0.08683774475456706</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.01879333368623021</v>
+        <v>-0.01951147279179506</v>
       </c>
       <c r="C29">
-        <v>-0.01937742549073535</v>
+        <v>-0.02254038924104404</v>
       </c>
       <c r="D29">
-        <v>0.02820823409820416</v>
+        <v>0.01656448140554338</v>
       </c>
       <c r="E29">
-        <v>-0.03130910448619609</v>
+        <v>0.03738980244873482</v>
       </c>
       <c r="F29">
-        <v>0.003612915891943482</v>
+        <v>0.02908692355691598</v>
       </c>
       <c r="G29">
-        <v>-0.03711630922351679</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.01695092550220575</v>
+      </c>
+      <c r="H29">
+        <v>0.05912023236049976</v>
+      </c>
+      <c r="I29">
+        <v>0.01076945688690929</v>
+      </c>
+      <c r="J29">
+        <v>-0.01382110175272595</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1040880788324868</v>
+        <v>-0.1031795949634219</v>
       </c>
       <c r="C30">
-        <v>0.003528584716753971</v>
+        <v>-0.02717670303880744</v>
       </c>
       <c r="D30">
-        <v>0.05522371250392064</v>
+        <v>0.03140674219961422</v>
       </c>
       <c r="E30">
-        <v>-0.1124599939888909</v>
+        <v>0.1126197614118523</v>
       </c>
       <c r="F30">
-        <v>-0.01040141970115341</v>
+        <v>0.009004573473991553</v>
       </c>
       <c r="G30">
-        <v>0.08330465862590257</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.02512216208973091</v>
+      </c>
+      <c r="H30">
+        <v>0.009197733708698586</v>
+      </c>
+      <c r="I30">
+        <v>-0.03070489573764227</v>
+      </c>
+      <c r="J30">
+        <v>0.02330498542044705</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.05213315440458668</v>
+        <v>-0.05667019858430649</v>
       </c>
       <c r="C31">
-        <v>-0.01129972323607816</v>
+        <v>-0.01725952052126267</v>
       </c>
       <c r="D31">
-        <v>0.01702573768231007</v>
+        <v>0.01538432962280683</v>
       </c>
       <c r="E31">
-        <v>0.007564715862730545</v>
+        <v>0.01756387334822075</v>
       </c>
       <c r="F31">
-        <v>0.007617453643982995</v>
+        <v>-0.01826794136198399</v>
       </c>
       <c r="G31">
-        <v>-0.01843591715855097</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.03329313446799578</v>
+      </c>
+      <c r="H31">
+        <v>0.04800077612036104</v>
+      </c>
+      <c r="I31">
+        <v>0.01549159379648699</v>
+      </c>
+      <c r="J31">
+        <v>-0.01696216470721221</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.06526955100265731</v>
+        <v>-0.04735074592138292</v>
       </c>
       <c r="C32">
-        <v>-0.02083154268245522</v>
+        <v>-0.04540426535745193</v>
       </c>
       <c r="D32">
-        <v>0.0483110145463838</v>
+        <v>0.01984528206616701</v>
       </c>
       <c r="E32">
-        <v>-0.1042604027022263</v>
+        <v>0.09837326451345076</v>
       </c>
       <c r="F32">
-        <v>-0.03516305980461511</v>
+        <v>0.03537269818993197</v>
       </c>
       <c r="G32">
-        <v>-0.005999811446703226</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01799376371561342</v>
+      </c>
+      <c r="H32">
+        <v>0.05600982128235556</v>
+      </c>
+      <c r="I32">
+        <v>0.0362255409623299</v>
+      </c>
+      <c r="J32">
+        <v>0.02794322573364794</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.06563931596177146</v>
+        <v>-0.05847245502410214</v>
       </c>
       <c r="C33">
-        <v>-0.02522912528874733</v>
+        <v>-0.04140373687083505</v>
       </c>
       <c r="D33">
-        <v>0.0401668229046016</v>
+        <v>0.004862853313694363</v>
       </c>
       <c r="E33">
-        <v>-0.06437819733550107</v>
+        <v>0.088069066488346</v>
       </c>
       <c r="F33">
-        <v>0.01781425225815903</v>
+        <v>0.008664335952704829</v>
       </c>
       <c r="G33">
-        <v>-0.006986560048113782</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.01208801533774604</v>
+      </c>
+      <c r="H33">
+        <v>0.05108705688754971</v>
+      </c>
+      <c r="I33">
+        <v>-0.0103972323385874</v>
+      </c>
+      <c r="J33">
+        <v>0.003667339156011881</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.04583922282475074</v>
+        <v>-0.04234813580323537</v>
       </c>
       <c r="C34">
-        <v>-0.01180225836794642</v>
+        <v>-0.0216852889038411</v>
       </c>
       <c r="D34">
-        <v>0.002614586351589183</v>
+        <v>0.008794930225046325</v>
       </c>
       <c r="E34">
-        <v>-0.02673189832359779</v>
+        <v>0.03772360246971871</v>
       </c>
       <c r="F34">
-        <v>-0.00658211185921218</v>
+        <v>0.007784775514578766</v>
       </c>
       <c r="G34">
-        <v>-0.007929597272226481</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.002783056438947556</v>
+      </c>
+      <c r="H34">
+        <v>0.02454544361144878</v>
+      </c>
+      <c r="I34">
+        <v>-0.006336904776509653</v>
+      </c>
+      <c r="J34">
+        <v>0.01346692630123418</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.008807487541960092</v>
+        <v>-0.01243820717082822</v>
       </c>
       <c r="C36">
-        <v>0.007372279742181084</v>
+        <v>-0.00149438324645087</v>
       </c>
       <c r="D36">
-        <v>0.01278169279759859</v>
+        <v>0.005376160936419741</v>
       </c>
       <c r="E36">
-        <v>-0.02354985703309017</v>
+        <v>0.02969137719401692</v>
       </c>
       <c r="F36">
-        <v>0.001760355210958086</v>
+        <v>0.01054976992405972</v>
       </c>
       <c r="G36">
-        <v>-0.002372749968764052</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01012401710295205</v>
+      </c>
+      <c r="H36">
+        <v>0.03510359020101052</v>
+      </c>
+      <c r="I36">
+        <v>0.01322453047027555</v>
+      </c>
+      <c r="J36">
+        <v>0.006990251547080531</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05121691801192662</v>
+        <v>-0.02993883232246593</v>
       </c>
       <c r="C38">
-        <v>-0.004650022020963189</v>
+        <v>-0.010135196574382</v>
       </c>
       <c r="D38">
-        <v>0.03342544080309431</v>
+        <v>0.007096502898345643</v>
       </c>
       <c r="E38">
-        <v>-0.02367213588701335</v>
+        <v>0.04736251167223715</v>
       </c>
       <c r="F38">
-        <v>0.002039612630384957</v>
+        <v>0.01888348796165869</v>
       </c>
       <c r="G38">
-        <v>-0.01826629349138164</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.01658510832379946</v>
+      </c>
+      <c r="H38">
+        <v>0.01049692281751443</v>
+      </c>
+      <c r="I38">
+        <v>0.01032590076437778</v>
+      </c>
+      <c r="J38">
+        <v>0.01441194124949587</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.07582699803253451</v>
+        <v>-0.0632650902161196</v>
       </c>
       <c r="C39">
-        <v>-0.007623391146740079</v>
+        <v>-0.028697516327299</v>
       </c>
       <c r="D39">
-        <v>0.01967650089376328</v>
+        <v>0.01970387304203649</v>
       </c>
       <c r="E39">
-        <v>-0.04235008594682965</v>
+        <v>0.06000108612096662</v>
       </c>
       <c r="F39">
-        <v>0.008076417788395865</v>
+        <v>-0.001142492461795647</v>
       </c>
       <c r="G39">
-        <v>0.01879655786791187</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.004232346382089851</v>
+      </c>
+      <c r="H39">
+        <v>0.02056780838352638</v>
+      </c>
+      <c r="I39">
+        <v>-0.02081962908786605</v>
+      </c>
+      <c r="J39">
+        <v>0.02171647835112263</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.06861073047673043</v>
+        <v>-0.05514158342366084</v>
       </c>
       <c r="C40">
-        <v>-0.02745846383882162</v>
+        <v>-0.03515875537869809</v>
       </c>
       <c r="D40">
-        <v>0.04630133161639142</v>
+        <v>0.0213388226921953</v>
       </c>
       <c r="E40">
-        <v>-0.1042632301109026</v>
+        <v>0.1129510418007001</v>
       </c>
       <c r="F40">
-        <v>0.008101283739242781</v>
+        <v>-0.001860534620913558</v>
       </c>
       <c r="G40">
-        <v>-0.056077310472885</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.007001446665510233</v>
+      </c>
+      <c r="H40">
+        <v>0.07781083364329548</v>
+      </c>
+      <c r="I40">
+        <v>0.02902026264003792</v>
+      </c>
+      <c r="J40">
+        <v>0.005399201857045706</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.002804569851779779</v>
+        <v>-0.0005091225879302022</v>
       </c>
       <c r="C41">
-        <v>-0.006122303046976658</v>
+        <v>-0.008767783016153077</v>
       </c>
       <c r="D41">
-        <v>0.02027282488377955</v>
+        <v>0.003495684432555063</v>
       </c>
       <c r="E41">
-        <v>-0.01334482120780293</v>
+        <v>0.0187479265356966</v>
       </c>
       <c r="F41">
-        <v>0.0221662376768635</v>
+        <v>0.00791711330129892</v>
       </c>
       <c r="G41">
-        <v>-0.0258197398321414</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.02848080702261142</v>
+      </c>
+      <c r="H41">
+        <v>0.04042160934803345</v>
+      </c>
+      <c r="I41">
+        <v>0.01688459892988347</v>
+      </c>
+      <c r="J41">
+        <v>-0.02465470504873803</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>-0.1686942758190361</v>
+        <v>-0.2445788942381725</v>
       </c>
       <c r="C42">
-        <v>-0.1412560128376248</v>
+        <v>-0.1506792244692064</v>
       </c>
       <c r="D42">
-        <v>-0.8750976423291132</v>
+        <v>-0.9148958926798141</v>
       </c>
       <c r="E42">
-        <v>-0.3341299132358552</v>
+        <v>-0.1244630507938614</v>
       </c>
       <c r="F42">
-        <v>0.1071284163890391</v>
+        <v>-0.1835529316621253</v>
       </c>
       <c r="G42">
-        <v>0.1014900268018965</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.007223768124337018</v>
+      </c>
+      <c r="H42">
+        <v>-0.01265976620318047</v>
+      </c>
+      <c r="I42">
+        <v>0.03270853801998084</v>
+      </c>
+      <c r="J42">
+        <v>-0.0418606799057465</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.008449370911883063</v>
+        <v>-0.001024830560426885</v>
       </c>
       <c r="C43">
-        <v>-0.009413375500219038</v>
+        <v>-0.01337790942143934</v>
       </c>
       <c r="D43">
-        <v>0.03037464983232711</v>
+        <v>0.005685087652175593</v>
       </c>
       <c r="E43">
-        <v>-0.02719338575768065</v>
+        <v>0.03180909439265099</v>
       </c>
       <c r="F43">
-        <v>-0.009304673915191875</v>
+        <v>0.00521845170879506</v>
       </c>
       <c r="G43">
-        <v>-0.02412136233175543</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.006569396457394639</v>
+      </c>
+      <c r="H43">
+        <v>0.03653645331425299</v>
+      </c>
+      <c r="I43">
+        <v>0.008406448789374509</v>
+      </c>
+      <c r="J43">
+        <v>-0.018699201933593</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.04401079151492013</v>
+        <v>-0.0290758390093185</v>
       </c>
       <c r="C44">
-        <v>-0.03009033405157788</v>
+        <v>-0.03494576086766646</v>
       </c>
       <c r="D44">
-        <v>0.05655493657169116</v>
+        <v>0.001537244068250614</v>
       </c>
       <c r="E44">
-        <v>-0.09837812328579304</v>
+        <v>0.1224691587253909</v>
       </c>
       <c r="F44">
-        <v>0.04163885997033846</v>
+        <v>0.02813250089004514</v>
       </c>
       <c r="G44">
-        <v>-0.09299255993106191</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.0288662869259506</v>
+      </c>
+      <c r="H44">
+        <v>0.1111397857639718</v>
+      </c>
+      <c r="I44">
+        <v>0.04402524714380728</v>
+      </c>
+      <c r="J44">
+        <v>-0.004274223825728283</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.02113665206583884</v>
+        <v>-0.0199346528200936</v>
       </c>
       <c r="C46">
-        <v>-0.01506075662854661</v>
+        <v>-0.02743218511342353</v>
       </c>
       <c r="D46">
-        <v>0.03652695213304007</v>
+        <v>0.01708684417030522</v>
       </c>
       <c r="E46">
-        <v>-0.01689153248815487</v>
+        <v>0.0485946463757877</v>
       </c>
       <c r="F46">
-        <v>0.0184748878547354</v>
+        <v>0.01212137901674571</v>
       </c>
       <c r="G46">
-        <v>-0.03360929148437482</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.01742414624385946</v>
+      </c>
+      <c r="H46">
+        <v>0.06126702173668622</v>
+      </c>
+      <c r="I46">
+        <v>0.00941515333991713</v>
+      </c>
+      <c r="J46">
+        <v>-0.03092936646748342</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.07790297838935781</v>
+        <v>-0.08644965997632699</v>
       </c>
       <c r="C47">
-        <v>-0.00383517087248264</v>
+        <v>-0.01507564480995907</v>
       </c>
       <c r="D47">
-        <v>0.01904027786088623</v>
+        <v>0.02173066655451792</v>
       </c>
       <c r="E47">
-        <v>0.009293788200480727</v>
+        <v>0.004928240082471548</v>
       </c>
       <c r="F47">
-        <v>0.002638749454235296</v>
+        <v>-0.00219108331257556</v>
       </c>
       <c r="G47">
-        <v>-0.03986613802156133</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.02811161059502666</v>
+      </c>
+      <c r="H47">
+        <v>0.07061619409108087</v>
+      </c>
+      <c r="I47">
+        <v>0.01938668994630584</v>
+      </c>
+      <c r="J47">
+        <v>-0.02516486385731327</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.01047546494014923</v>
+        <v>-0.0129741694701996</v>
       </c>
       <c r="C48">
-        <v>-0.01677004708001779</v>
+        <v>-0.01943123841648734</v>
       </c>
       <c r="D48">
-        <v>0.02378802951482582</v>
+        <v>0.005060291593722021</v>
       </c>
       <c r="E48">
-        <v>-0.03136585462326589</v>
+        <v>0.04046832793621378</v>
       </c>
       <c r="F48">
-        <v>0.006586174302250865</v>
+        <v>0.01036053603495934</v>
       </c>
       <c r="G48">
-        <v>-0.003216147394503713</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.002723264010962292</v>
+      </c>
+      <c r="H48">
+        <v>0.02381679846750949</v>
+      </c>
+      <c r="I48">
+        <v>0.01082910508345311</v>
+      </c>
+      <c r="J48">
+        <v>-0.01107256339961159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.07373261259660324</v>
+        <v>-0.07924518005196213</v>
       </c>
       <c r="C50">
-        <v>-0.03262896334933715</v>
+        <v>-0.03578449780183648</v>
       </c>
       <c r="D50">
-        <v>0.01286717341596893</v>
+        <v>0.01819078098622669</v>
       </c>
       <c r="E50">
-        <v>0.01748344735056565</v>
+        <v>0.01046597278677757</v>
       </c>
       <c r="F50">
-        <v>0.01000435745631503</v>
+        <v>-0.00524163041604615</v>
       </c>
       <c r="G50">
-        <v>-0.01084346439993675</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.006967923870771347</v>
+      </c>
+      <c r="H50">
+        <v>0.04993966940668213</v>
+      </c>
+      <c r="I50">
+        <v>0.01914566394824148</v>
+      </c>
+      <c r="J50">
+        <v>0.006763344343993764</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.06675966302660161</v>
+        <v>-0.04740886559853157</v>
       </c>
       <c r="C51">
-        <v>0.03128351404044959</v>
+        <v>0.007922958217411324</v>
       </c>
       <c r="D51">
-        <v>0.05171108903755253</v>
+        <v>0.007372327305231632</v>
       </c>
       <c r="E51">
-        <v>-0.06307117916455568</v>
+        <v>0.1059491844900523</v>
       </c>
       <c r="F51">
-        <v>0.04661219729459438</v>
+        <v>0.00131425295051588</v>
       </c>
       <c r="G51">
-        <v>-0.01619299655390984</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.04895095195264645</v>
+      </c>
+      <c r="H51">
+        <v>0.05034186009059739</v>
+      </c>
+      <c r="I51">
+        <v>0.02937905748372676</v>
+      </c>
+      <c r="J51">
+        <v>-0.05967566714845664</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1394567100482405</v>
+        <v>-0.1277189793303836</v>
       </c>
       <c r="C53">
-        <v>-0.00554057546873278</v>
+        <v>-0.03346390544933353</v>
       </c>
       <c r="D53">
-        <v>0.04093628113465271</v>
+        <v>0.04610845817222875</v>
       </c>
       <c r="E53">
-        <v>0.01986602182539926</v>
+        <v>-0.01578407108170167</v>
       </c>
       <c r="F53">
-        <v>0.007720233161323745</v>
+        <v>-0.006643720209000673</v>
       </c>
       <c r="G53">
-        <v>-0.02712342135347127</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.02904953609237328</v>
+      </c>
+      <c r="H53">
+        <v>0.01445087257595319</v>
+      </c>
+      <c r="I53">
+        <v>-0.009967273733789746</v>
+      </c>
+      <c r="J53">
+        <v>-0.08684991985163065</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.01964710133134574</v>
+        <v>-0.02142923059074854</v>
       </c>
       <c r="C54">
-        <v>0.007060663073043412</v>
+        <v>-0.003897412810886316</v>
       </c>
       <c r="D54">
-        <v>0.04393878002094734</v>
+        <v>0.02381482920325516</v>
       </c>
       <c r="E54">
-        <v>-0.02496953769900932</v>
+        <v>0.04400841932729699</v>
       </c>
       <c r="F54">
-        <v>0.03047396677761857</v>
+        <v>0.02136418478987405</v>
       </c>
       <c r="G54">
-        <v>-0.04043339482755155</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.0309259368684335</v>
+      </c>
+      <c r="H54">
+        <v>0.06726442662051141</v>
+      </c>
+      <c r="I54">
+        <v>0.04157558398975034</v>
+      </c>
+      <c r="J54">
+        <v>-0.02400099464141835</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.09553170067970913</v>
+        <v>-0.1017223668360306</v>
       </c>
       <c r="C55">
-        <v>0.004955355173134981</v>
+        <v>-0.01610375327027633</v>
       </c>
       <c r="D55">
-        <v>0.03612555763310998</v>
+        <v>0.02914522753395513</v>
       </c>
       <c r="E55">
-        <v>-0.001885632842333703</v>
+        <v>-0.01457154148373644</v>
       </c>
       <c r="F55">
-        <v>-0.02131948018144477</v>
+        <v>0.03228015030886093</v>
       </c>
       <c r="G55">
-        <v>-0.02521537837279001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.005142199485902567</v>
+      </c>
+      <c r="H55">
+        <v>0.03412560190224682</v>
+      </c>
+      <c r="I55">
+        <v>-0.02081077460485839</v>
+      </c>
+      <c r="J55">
+        <v>-0.06828230231470439</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1766509106180217</v>
+        <v>-0.1687226416461779</v>
       </c>
       <c r="C56">
-        <v>0.02556801387868559</v>
+        <v>-0.01082081337993935</v>
       </c>
       <c r="D56">
-        <v>0.05221362897323886</v>
+        <v>0.08892168494668347</v>
       </c>
       <c r="E56">
-        <v>0.07274592489936013</v>
+        <v>-0.06957924133307722</v>
       </c>
       <c r="F56">
-        <v>-0.04985458567381303</v>
+        <v>0.005622187722777115</v>
       </c>
       <c r="G56">
-        <v>-0.01403841793464309</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.01547040324956025</v>
+      </c>
+      <c r="H56">
+        <v>-0.03080725223918532</v>
+      </c>
+      <c r="I56">
+        <v>-0.05449764262358493</v>
+      </c>
+      <c r="J56">
+        <v>-0.0793283980672269</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>-0.09709897807232924</v>
+        <v>-0.07575274418833279</v>
       </c>
       <c r="C57">
-        <v>-0.01650636214607472</v>
+        <v>-0.02266138762809362</v>
       </c>
       <c r="D57">
-        <v>0.04227657979052327</v>
+        <v>0.006460932575779357</v>
       </c>
       <c r="E57">
-        <v>-0.0640113083719383</v>
+        <v>0.08279722595961889</v>
       </c>
       <c r="F57">
-        <v>-0.007707130977928856</v>
+        <v>0.00863197621585452</v>
       </c>
       <c r="G57">
-        <v>-0.04176777685876041</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.005598703616529755</v>
+      </c>
+      <c r="H57">
+        <v>0.05224668050132615</v>
+      </c>
+      <c r="I57">
+        <v>-0.01227089906603625</v>
+      </c>
+      <c r="J57">
+        <v>-0.01992152717705254</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.1732785967092798</v>
+        <v>-0.1949002664732007</v>
       </c>
       <c r="C58">
-        <v>0.01212330963635451</v>
+        <v>-0.03757046108813036</v>
       </c>
       <c r="D58">
-        <v>-0.01004002743184738</v>
+        <v>-0.00278547999788593</v>
       </c>
       <c r="E58">
-        <v>-0.0728662683143943</v>
+        <v>0.1424384233334799</v>
       </c>
       <c r="F58">
-        <v>-0.07483698198032765</v>
+        <v>-0.01221350958044678</v>
       </c>
       <c r="G58">
-        <v>-0.1674867775479212</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1489796952869515</v>
+      </c>
+      <c r="H58">
+        <v>0.2926053377231085</v>
+      </c>
+      <c r="I58">
+        <v>0.129528862935562</v>
+      </c>
+      <c r="J58">
+        <v>0.2080192290789233</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.01698568033896411</v>
+        <v>-0.01940786761475161</v>
       </c>
       <c r="C59">
-        <v>0.2012061995207504</v>
+        <v>0.1956912597035186</v>
       </c>
       <c r="D59">
-        <v>0.03257583124669118</v>
+        <v>0.0108607939005302</v>
       </c>
       <c r="E59">
-        <v>-0.03463486764539818</v>
+        <v>0.05360560300115096</v>
       </c>
       <c r="F59">
-        <v>-0.005377455183026052</v>
+        <v>-0.01117145512360752</v>
       </c>
       <c r="G59">
-        <v>0.0459973997706833</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>1.30840634155492e-05</v>
+      </c>
+      <c r="H59">
+        <v>-0.03672552256593607</v>
+      </c>
+      <c r="I59">
+        <v>0.07802520948712122</v>
+      </c>
+      <c r="J59">
+        <v>-0.03327757100173423</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.170427676446702</v>
+        <v>-0.1775324090328499</v>
       </c>
       <c r="C60">
-        <v>0.1207032206852017</v>
+        <v>0.06652246175743236</v>
       </c>
       <c r="D60">
-        <v>0.1085687087866743</v>
+        <v>0.02183673461048508</v>
       </c>
       <c r="E60">
-        <v>-0.1590332757346569</v>
+        <v>0.2073877392538969</v>
       </c>
       <c r="F60">
-        <v>0.007247228605629293</v>
+        <v>-0.0459369037890765</v>
       </c>
       <c r="G60">
-        <v>0.159079772798722</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.06181553240694771</v>
+      </c>
+      <c r="H60">
+        <v>-0.2253716788328334</v>
+      </c>
+      <c r="I60">
+        <v>-0.1092354530336987</v>
+      </c>
+      <c r="J60">
+        <v>0.03910726479733907</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.05148775625189481</v>
+        <v>-0.03993230067407287</v>
       </c>
       <c r="C61">
-        <v>-0.001920782616750666</v>
+        <v>-0.01581836197208603</v>
       </c>
       <c r="D61">
-        <v>0.01054633954322633</v>
+        <v>0.002604465836024561</v>
       </c>
       <c r="E61">
-        <v>-0.03774862663378514</v>
+        <v>0.04419348982218661</v>
       </c>
       <c r="F61">
-        <v>0.004335517769414783</v>
+        <v>0.0004139733673306198</v>
       </c>
       <c r="G61">
-        <v>0.0382198835718919</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>4.391823028831251e-05</v>
+      </c>
+      <c r="H61">
+        <v>0.003274719291731627</v>
+      </c>
+      <c r="I61">
+        <v>-0.02665139684041178</v>
+      </c>
+      <c r="J61">
+        <v>0.03183106615950199</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.03421412351765124</v>
+        <v>-0.02728011231815566</v>
       </c>
       <c r="C63">
-        <v>0.007819214067955127</v>
+        <v>-0.01333371514267475</v>
       </c>
       <c r="D63">
-        <v>0.02150666692346873</v>
+        <v>0.009798597216252258</v>
       </c>
       <c r="E63">
-        <v>-0.03893788594752524</v>
+        <v>0.03696726059583295</v>
       </c>
       <c r="F63">
-        <v>0.002099033694854366</v>
+        <v>0.009841706129239468</v>
       </c>
       <c r="G63">
-        <v>-0.01979820641040307</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.001697909471467564</v>
+      </c>
+      <c r="H63">
+        <v>0.04212779362322761</v>
+      </c>
+      <c r="I63">
+        <v>0.01529833807470051</v>
+      </c>
+      <c r="J63">
+        <v>-0.03989603674038295</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.09503374356447328</v>
+        <v>-0.06878187506529453</v>
       </c>
       <c r="C64">
-        <v>-0.002178531065969688</v>
+        <v>-0.02718871482019835</v>
       </c>
       <c r="D64">
-        <v>0.1095185140617861</v>
+        <v>0.03941389116423229</v>
       </c>
       <c r="E64">
-        <v>-0.05212873520524731</v>
+        <v>0.06428061205960393</v>
       </c>
       <c r="F64">
-        <v>0.07578465918444303</v>
+        <v>0.06025897043858547</v>
       </c>
       <c r="G64">
-        <v>0.0343553885326817</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.06680610770327378</v>
+      </c>
+      <c r="H64">
+        <v>-0.008741873946029937</v>
+      </c>
+      <c r="I64">
+        <v>-0.02335752145720686</v>
+      </c>
+      <c r="J64">
+        <v>-0.06946682936186951</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.01023250085731022</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.005264099512670154</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.002294732444855274</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.005686978587755949</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.002393355918493253</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.01374817916218232</v>
+      </c>
+      <c r="H65">
+        <v>0.0001087648830402978</v>
+      </c>
+      <c r="I65">
+        <v>0.0002104636934170525</v>
+      </c>
+      <c r="J65">
+        <v>-0.000135577926951767</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.1005690515302774</v>
+        <v>-0.07576870356917709</v>
       </c>
       <c r="C66">
-        <v>-0.01014950580742208</v>
+        <v>-0.03673126882973392</v>
       </c>
       <c r="D66">
-        <v>0.07381405778311349</v>
+        <v>0.04179633611585198</v>
       </c>
       <c r="E66">
-        <v>-0.05956889591506195</v>
+        <v>0.08606908166204701</v>
       </c>
       <c r="F66">
-        <v>0.009318418933395956</v>
+        <v>0.001085731457685318</v>
       </c>
       <c r="G66">
-        <v>0.01725978783358371</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.00367810841424455</v>
+      </c>
+      <c r="H66">
+        <v>0.02038970094961528</v>
+      </c>
+      <c r="I66">
+        <v>-0.04416926352255982</v>
+      </c>
+      <c r="J66">
+        <v>0.01334867142107441</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.05695707062985528</v>
+        <v>-0.04011762400680598</v>
       </c>
       <c r="C67">
-        <v>0.01674288262948436</v>
+        <v>0.007556919488860942</v>
       </c>
       <c r="D67">
-        <v>0.02253363971325936</v>
+        <v>0.004020105447915136</v>
       </c>
       <c r="E67">
-        <v>-0.02294123171214395</v>
+        <v>0.0418924642579067</v>
       </c>
       <c r="F67">
-        <v>0.0007691809147995496</v>
+        <v>0.007114541660555002</v>
       </c>
       <c r="G67">
-        <v>-0.02061580060689163</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.02323409733482532</v>
+      </c>
+      <c r="H67">
+        <v>-0.0007054747854758931</v>
+      </c>
+      <c r="I67">
+        <v>-0.0281227923952982</v>
+      </c>
+      <c r="J67">
+        <v>0.0192398487130401</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.01407734351695394</v>
+        <v>-0.02908831672567897</v>
       </c>
       <c r="C68">
-        <v>0.2486562564826822</v>
+        <v>0.2374821458509173</v>
       </c>
       <c r="D68">
-        <v>0.009907889934159777</v>
+        <v>0.0009079784007614031</v>
       </c>
       <c r="E68">
-        <v>-0.03413378767001023</v>
+        <v>0.03846014923513697</v>
       </c>
       <c r="F68">
-        <v>-0.01845035679106229</v>
+        <v>0.003682014977074582</v>
       </c>
       <c r="G68">
-        <v>0.02597458917787967</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.01293420770045951</v>
+      </c>
+      <c r="H68">
+        <v>-0.04064814716223689</v>
+      </c>
+      <c r="I68">
+        <v>0.155927344697373</v>
+      </c>
+      <c r="J68">
+        <v>-0.08027817047811134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.0636470969998197</v>
+        <v>-0.06758159453830224</v>
       </c>
       <c r="C69">
-        <v>-0.005497741660921668</v>
+        <v>-0.01161956968631991</v>
       </c>
       <c r="D69">
-        <v>0.02679941770911291</v>
+        <v>0.02712326414967554</v>
       </c>
       <c r="E69">
-        <v>0.01084619458843208</v>
+        <v>0.01123953303982955</v>
       </c>
       <c r="F69">
-        <v>-0.006499684186041373</v>
+        <v>-0.00704907674688926</v>
       </c>
       <c r="G69">
-        <v>-0.003041466114237537</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01850363163932275</v>
+      </c>
+      <c r="H69">
+        <v>0.0493227738574559</v>
+      </c>
+      <c r="I69">
+        <v>-0.0004913687546463163</v>
+      </c>
+      <c r="J69">
+        <v>-0.006784492309866644</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.0112870995664073</v>
+        <v>-0.03282531060718964</v>
       </c>
       <c r="C71">
-        <v>0.2213111709576004</v>
+        <v>0.2264810219568002</v>
       </c>
       <c r="D71">
-        <v>0.01508433398273601</v>
+        <v>-0.01949287108479568</v>
       </c>
       <c r="E71">
-        <v>-0.05343312556536495</v>
+        <v>0.05707207918768485</v>
       </c>
       <c r="F71">
-        <v>-0.01536332751830369</v>
+        <v>-0.02419980045867496</v>
       </c>
       <c r="G71">
-        <v>0.1410370892005123</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.002875996772125753</v>
+      </c>
+      <c r="H71">
+        <v>-0.06026841544474118</v>
+      </c>
+      <c r="I71">
+        <v>0.1596559615232417</v>
+      </c>
+      <c r="J71">
+        <v>-0.01932401473063143</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.101007840749018</v>
+        <v>-0.1114176039933022</v>
       </c>
       <c r="C72">
-        <v>0.02514399357791967</v>
+        <v>0.009214965670740538</v>
       </c>
       <c r="D72">
-        <v>0.06939500939539732</v>
+        <v>0.06099948532729069</v>
       </c>
       <c r="E72">
-        <v>-0.0451381080110624</v>
+        <v>0.08471854907371115</v>
       </c>
       <c r="F72">
-        <v>-0.009739436754120609</v>
+        <v>0.01452623608078061</v>
       </c>
       <c r="G72">
-        <v>-0.02075762093258791</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.03371204336242618</v>
+      </c>
+      <c r="H72">
+        <v>0.0001367167954370215</v>
+      </c>
+      <c r="I72">
+        <v>0.005541483182225687</v>
+      </c>
+      <c r="J72">
+        <v>0.02678061552422364</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2630743288711686</v>
+        <v>-0.2728049928753921</v>
       </c>
       <c r="C73">
-        <v>0.2203536054077586</v>
+        <v>0.1488740846882221</v>
       </c>
       <c r="D73">
-        <v>0.1061100190098236</v>
+        <v>-0.005064550578585323</v>
       </c>
       <c r="E73">
-        <v>-0.2544642110390583</v>
+        <v>0.3168762897314065</v>
       </c>
       <c r="F73">
-        <v>-0.0352141647665174</v>
+        <v>-0.08394483090771476</v>
       </c>
       <c r="G73">
-        <v>0.3899465784047996</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1406827304346235</v>
+      </c>
+      <c r="H73">
+        <v>-0.4114004124672956</v>
+      </c>
+      <c r="I73">
+        <v>-0.2553841663039805</v>
+      </c>
+      <c r="J73">
+        <v>0.3084458582396951</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1526836225596269</v>
+        <v>-0.1526285151386041</v>
       </c>
       <c r="C74">
-        <v>0.01737463184773675</v>
+        <v>-0.008352608097221544</v>
       </c>
       <c r="D74">
-        <v>0.04386795041936916</v>
+        <v>0.04652284874455375</v>
       </c>
       <c r="E74">
-        <v>0.003971658810506909</v>
+        <v>-0.02574375648500617</v>
       </c>
       <c r="F74">
-        <v>-0.04630886791335996</v>
+        <v>0.001711865409973233</v>
       </c>
       <c r="G74">
-        <v>0.00124757159722274</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.01846488980838281</v>
+      </c>
+      <c r="H74">
+        <v>-0.02361654354208123</v>
+      </c>
+      <c r="I74">
+        <v>-0.05949669578561302</v>
+      </c>
+      <c r="J74">
+        <v>-0.08189829694490204</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.2351984478923188</v>
+        <v>-0.2446449049440998</v>
       </c>
       <c r="C75">
-        <v>0.02719748851100234</v>
+        <v>-0.01287017477696562</v>
       </c>
       <c r="D75">
-        <v>0.01443406295504174</v>
+        <v>0.1023430560335728</v>
       </c>
       <c r="E75">
-        <v>0.0998515492393572</v>
+        <v>-0.1116691420395689</v>
       </c>
       <c r="F75">
-        <v>-0.02473135975048157</v>
+        <v>-0.01926033927708816</v>
       </c>
       <c r="G75">
-        <v>-0.06530207720577731</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.02259784564280698</v>
+      </c>
+      <c r="H75">
+        <v>-0.0102488873791115</v>
+      </c>
+      <c r="I75">
+        <v>-0.04464861911225058</v>
+      </c>
+      <c r="J75">
+        <v>-0.1843975813959728</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.2349316563065887</v>
+        <v>-0.2593038173250114</v>
       </c>
       <c r="C76">
-        <v>0.01981573478280955</v>
+        <v>-0.004503581840297553</v>
       </c>
       <c r="D76">
-        <v>0.06066299997095567</v>
+        <v>0.1221867975240686</v>
       </c>
       <c r="E76">
-        <v>0.09531193050589046</v>
+        <v>-0.125173961576328</v>
       </c>
       <c r="F76">
-        <v>-0.03752396786956564</v>
+        <v>0.01302016147294522</v>
       </c>
       <c r="G76">
-        <v>-0.02701945111662751</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.01688905482930983</v>
+      </c>
+      <c r="H76">
+        <v>-0.006069166468659883</v>
+      </c>
+      <c r="I76">
+        <v>-0.1041477706608553</v>
+      </c>
+      <c r="J76">
+        <v>-0.164241085481051</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.1214547229598075</v>
+        <v>-0.1282718356923421</v>
       </c>
       <c r="C77">
-        <v>-0.01155079454192755</v>
+        <v>-0.04428479291603335</v>
       </c>
       <c r="D77">
-        <v>0.03882503331476876</v>
+        <v>-0.0487494189938651</v>
       </c>
       <c r="E77">
-        <v>-0.1687953295691706</v>
+        <v>0.1742436168805484</v>
       </c>
       <c r="F77">
-        <v>-0.01602375354980908</v>
+        <v>0.05406293756863485</v>
       </c>
       <c r="G77">
-        <v>-0.1157162665000539</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.02245993681498147</v>
+      </c>
+      <c r="H77">
+        <v>0.1455641577696401</v>
+      </c>
+      <c r="I77">
+        <v>0.1446100880930908</v>
+      </c>
+      <c r="J77">
+        <v>-0.1001616918388753</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.09488862371875634</v>
+        <v>-0.08598621186293452</v>
       </c>
       <c r="C78">
-        <v>-0.02634711931636597</v>
+        <v>-0.05293685764968954</v>
       </c>
       <c r="D78">
-        <v>0.01402294255338096</v>
+        <v>-0.0001527384451363446</v>
       </c>
       <c r="E78">
-        <v>-0.09414731791877325</v>
+        <v>0.0878970141278797</v>
       </c>
       <c r="F78">
-        <v>0.004601532982648189</v>
+        <v>0.03668243924280661</v>
       </c>
       <c r="G78">
-        <v>0.02428184326581393</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.01230594873907232</v>
+      </c>
+      <c r="H78">
+        <v>0.01763626294347109</v>
+      </c>
+      <c r="I78">
+        <v>0.02557717767086697</v>
+      </c>
+      <c r="J78">
+        <v>-0.02015910488285613</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.07582381939956688</v>
+        <v>-0.08882566044395429</v>
       </c>
       <c r="C80">
-        <v>0.002678938614874385</v>
+        <v>0.05455769036041525</v>
       </c>
       <c r="D80">
-        <v>-0.03414959869500047</v>
+        <v>-0.1672990410897351</v>
       </c>
       <c r="E80">
-        <v>0.007742183546314927</v>
+        <v>-0.1333869792464554</v>
       </c>
       <c r="F80">
-        <v>0.002993502144082995</v>
+        <v>0.9434952853956204</v>
       </c>
       <c r="G80">
-        <v>-0.3326897667568647</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.01694346362522553</v>
+      </c>
+      <c r="H80">
+        <v>-0.1451017642777642</v>
+      </c>
+      <c r="I80">
+        <v>-0.02350234625447406</v>
+      </c>
+      <c r="J80">
+        <v>0.1113068266340785</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.1662111615843989</v>
+        <v>-0.1740740896162373</v>
       </c>
       <c r="C81">
-        <v>0.01727922414857868</v>
+        <v>-0.004001301490883537</v>
       </c>
       <c r="D81">
-        <v>0.008021468111568043</v>
+        <v>0.08695337062994972</v>
       </c>
       <c r="E81">
-        <v>0.11704898569066</v>
+        <v>-0.1350270094264659</v>
       </c>
       <c r="F81">
-        <v>-0.05337945069787511</v>
+        <v>-0.01948255751851294</v>
       </c>
       <c r="G81">
-        <v>-0.04270355143201246</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.01425055302123597</v>
+      </c>
+      <c r="H81">
+        <v>-0.007660615095509008</v>
+      </c>
+      <c r="I81">
+        <v>-0.04973343114948407</v>
+      </c>
+      <c r="J81">
+        <v>-0.1342673421692779</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.07521327931393278</v>
+        <v>-0.06459667643961912</v>
       </c>
       <c r="C83">
-        <v>-0.02295465091159078</v>
+        <v>-0.03627709544636556</v>
       </c>
       <c r="D83">
-        <v>-0.04621580679645692</v>
+        <v>-0.0448632796668294</v>
       </c>
       <c r="E83">
-        <v>-0.09687403517267264</v>
+        <v>0.07125510723047894</v>
       </c>
       <c r="F83">
-        <v>0.07468849884849516</v>
+        <v>-0.009338225113160126</v>
       </c>
       <c r="G83">
-        <v>-0.05060991112258997</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04794500162650597</v>
+      </c>
+      <c r="H83">
+        <v>0.0448971284256637</v>
+      </c>
+      <c r="I83">
+        <v>-0.006447881976599506</v>
+      </c>
+      <c r="J83">
+        <v>-0.08727391732068657</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.2472822697599521</v>
+        <v>-0.25733158709701</v>
       </c>
       <c r="C85">
-        <v>-0.03422290709589246</v>
+        <v>-0.05041572698884615</v>
       </c>
       <c r="D85">
-        <v>-0.003392652558992022</v>
+        <v>0.08734652870351936</v>
       </c>
       <c r="E85">
-        <v>0.1081111621207283</v>
+        <v>-0.1403658952907905</v>
       </c>
       <c r="F85">
-        <v>-0.01017704007962914</v>
+        <v>0.01611059221280487</v>
       </c>
       <c r="G85">
-        <v>-0.09726633107979249</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.02145007743858977</v>
+      </c>
+      <c r="H85">
+        <v>0.02654279474633965</v>
+      </c>
+      <c r="I85">
+        <v>-0.07322415016152838</v>
+      </c>
+      <c r="J85">
+        <v>-0.2021727367553031</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.04664944421835044</v>
+        <v>-0.02856565701919781</v>
       </c>
       <c r="C86">
-        <v>-0.02981124330350774</v>
+        <v>-0.04479495481730727</v>
       </c>
       <c r="D86">
-        <v>0.03146792825205105</v>
+        <v>0.007339175167240888</v>
       </c>
       <c r="E86">
-        <v>-0.04640402657446734</v>
+        <v>0.06165506764598969</v>
       </c>
       <c r="F86">
-        <v>-0.006181309986417493</v>
+        <v>0.03139760030494031</v>
       </c>
       <c r="G86">
-        <v>-0.009338420049100777</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.007923840756804711</v>
+      </c>
+      <c r="H86">
+        <v>0.03021548833225335</v>
+      </c>
+      <c r="I86">
+        <v>0.07673219738296055</v>
+      </c>
+      <c r="J86">
+        <v>0.01103117667888466</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.03167202606600675</v>
+        <v>-0.03916923839189982</v>
       </c>
       <c r="C87">
-        <v>0.05227434697323457</v>
+        <v>0.02359709260169147</v>
       </c>
       <c r="D87">
-        <v>0.032405534891877</v>
+        <v>0.002488665568881731</v>
       </c>
       <c r="E87">
-        <v>-0.04990049653633583</v>
+        <v>0.08487414607614284</v>
       </c>
       <c r="F87">
-        <v>0.01635944644273799</v>
+        <v>0.01482944874084141</v>
       </c>
       <c r="G87">
-        <v>0.1654322912008372</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.006649072569660994</v>
+      </c>
+      <c r="H87">
+        <v>-0.01870124254899821</v>
+      </c>
+      <c r="I87">
+        <v>0.03185772947420509</v>
+      </c>
+      <c r="J87">
+        <v>0.1103794396672222</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.03246796027933298</v>
+        <v>-0.02088753773324709</v>
       </c>
       <c r="C88">
-        <v>-0.02380943461034253</v>
+        <v>-0.01589906273121065</v>
       </c>
       <c r="D88">
-        <v>0.01154354653217611</v>
+        <v>0.01295674250543508</v>
       </c>
       <c r="E88">
-        <v>0.002674222770051144</v>
+        <v>0.004407794331640929</v>
       </c>
       <c r="F88">
-        <v>-0.007331062899137474</v>
+        <v>0.02202576773532666</v>
       </c>
       <c r="G88">
-        <v>-0.05652183311555027</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02832907974157704</v>
+      </c>
+      <c r="H88">
+        <v>0.04931922979693164</v>
+      </c>
+      <c r="I88">
+        <v>-0.00966234248944008</v>
+      </c>
+      <c r="J88">
+        <v>0.02256133811877052</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.02994304083886329</v>
+        <v>-0.04368694315478015</v>
       </c>
       <c r="C89">
-        <v>0.4375643674477209</v>
+        <v>0.4010052386582381</v>
       </c>
       <c r="D89">
-        <v>-0.08019604918490818</v>
+        <v>-0.0540456074689673</v>
       </c>
       <c r="E89">
-        <v>-0.02811139222476083</v>
+        <v>0.04940533387334561</v>
       </c>
       <c r="F89">
-        <v>0.04474486521749926</v>
+        <v>-0.03476952041961857</v>
       </c>
       <c r="G89">
-        <v>-0.04107084781140444</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.07314322793245145</v>
+      </c>
+      <c r="H89">
+        <v>0.01195568483580843</v>
+      </c>
+      <c r="I89">
+        <v>0.2566402334543488</v>
+      </c>
+      <c r="J89">
+        <v>-0.159784301748482</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.03390344766763558</v>
+        <v>-0.02300907716467823</v>
       </c>
       <c r="C90">
-        <v>0.3041143395061275</v>
+        <v>0.3270621738572991</v>
       </c>
       <c r="D90">
-        <v>0.001429094132568072</v>
+        <v>-0.02928140916537867</v>
       </c>
       <c r="E90">
-        <v>-0.03706130548176788</v>
+        <v>0.03547228444630995</v>
       </c>
       <c r="F90">
-        <v>-0.008479584931097638</v>
+        <v>0.007843000764038169</v>
       </c>
       <c r="G90">
-        <v>0.06215095626489496</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.01017874709759195</v>
+      </c>
+      <c r="H90">
+        <v>-0.0466885259682601</v>
+      </c>
+      <c r="I90">
+        <v>0.1747663409408747</v>
+      </c>
+      <c r="J90">
+        <v>-0.1113847470303577</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.3213664112129985</v>
+        <v>-0.3248905681384749</v>
       </c>
       <c r="C91">
-        <v>0.01295879344386376</v>
+        <v>-0.0211968235075607</v>
       </c>
       <c r="D91">
-        <v>-0.0449898980797362</v>
+        <v>0.1025074039897217</v>
       </c>
       <c r="E91">
-        <v>0.2337745513339012</v>
+        <v>-0.2604626847249746</v>
       </c>
       <c r="F91">
-        <v>-0.07831272688393719</v>
+        <v>-0.02501514653081711</v>
       </c>
       <c r="G91">
-        <v>-0.2478776114654099</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.02433598933006975</v>
+      </c>
+      <c r="H91">
+        <v>0.006507005332583277</v>
+      </c>
+      <c r="I91">
+        <v>-0.1314163907682317</v>
+      </c>
+      <c r="J91">
+        <v>-0.3597615080305602</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.03938129773019385</v>
+        <v>-0.06805209436870539</v>
       </c>
       <c r="C92">
-        <v>0.458249326537174</v>
+        <v>0.4802878163485974</v>
       </c>
       <c r="D92">
-        <v>-0.2088995111934059</v>
+        <v>-0.07907963336599892</v>
       </c>
       <c r="E92">
-        <v>0.04879483427351888</v>
+        <v>-0.132374971556731</v>
       </c>
       <c r="F92">
-        <v>-0.04502160618181495</v>
+        <v>-0.01265410408026801</v>
       </c>
       <c r="G92">
-        <v>-0.4806700414352362</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.04978384128915478</v>
+      </c>
+      <c r="H92">
+        <v>0.5814323842259835</v>
+      </c>
+      <c r="I92">
+        <v>-0.5282358371254847</v>
+      </c>
+      <c r="J92">
+        <v>0.2723878398993139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.03802792479190524</v>
+        <v>-0.02799099134201949</v>
       </c>
       <c r="C93">
-        <v>0.3713972399386835</v>
+        <v>0.4058621347742868</v>
       </c>
       <c r="D93">
-        <v>-0.08085105032820965</v>
+        <v>-0.06205527440369649</v>
       </c>
       <c r="E93">
-        <v>0.008608557921229309</v>
+        <v>-0.02115787238032094</v>
       </c>
       <c r="F93">
-        <v>-0.0008759760822130446</v>
+        <v>-0.011263405039581</v>
       </c>
       <c r="G93">
-        <v>-0.03929240359458563</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03916787432903603</v>
+      </c>
+      <c r="H93">
+        <v>-0.05434810094492435</v>
+      </c>
+      <c r="I93">
+        <v>0.1692602443999221</v>
+      </c>
+      <c r="J93">
+        <v>-0.1540791906245955</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.3230286527391938</v>
+        <v>-0.3321389255043061</v>
       </c>
       <c r="C94">
-        <v>0.01175408345174997</v>
+        <v>-0.01675586105344798</v>
       </c>
       <c r="D94">
-        <v>-0.2174077135927678</v>
+        <v>0.1624956854066607</v>
       </c>
       <c r="E94">
-        <v>0.5178710137319044</v>
+        <v>-0.4313974695618004</v>
       </c>
       <c r="F94">
-        <v>-0.3739391113747258</v>
+        <v>-0.09661341854759314</v>
       </c>
       <c r="G94">
-        <v>0.2570914333804513</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1911738553201923</v>
+      </c>
+      <c r="H94">
+        <v>0.02219557534519949</v>
+      </c>
+      <c r="I94">
+        <v>0.4783023558306553</v>
+      </c>
+      <c r="J94">
+        <v>0.5429821911165132</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.1883101165001046</v>
+        <v>-0.1430769328376601</v>
       </c>
       <c r="C95">
-        <v>0.04969588854879621</v>
+        <v>-0.05186306476518038</v>
       </c>
       <c r="D95">
-        <v>0.001350544337734521</v>
+        <v>0.03368830632063026</v>
       </c>
       <c r="E95">
-        <v>0.2975928937066394</v>
+        <v>-0.009527674018180058</v>
       </c>
       <c r="F95">
-        <v>0.8887851151078712</v>
+        <v>-0.06211705546123895</v>
       </c>
       <c r="G95">
-        <v>0.04919802309675791</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.9320492493469015</v>
+      </c>
+      <c r="H95">
+        <v>-0.0904263523821595</v>
+      </c>
+      <c r="I95">
+        <v>0.04855227351584027</v>
+      </c>
+      <c r="J95">
+        <v>0.2120465886076391</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.2021443797632974</v>
+        <v>-0.2052384806769263</v>
       </c>
       <c r="C98">
-        <v>0.1419608981768251</v>
+        <v>0.09039727794922994</v>
       </c>
       <c r="D98">
-        <v>0.03803265788185099</v>
+        <v>-0.01038753597504781</v>
       </c>
       <c r="E98">
-        <v>-0.1047905656823681</v>
+        <v>0.1668410216531013</v>
       </c>
       <c r="F98">
-        <v>0.004128544124751344</v>
+        <v>-0.07916199002989925</v>
       </c>
       <c r="G98">
-        <v>0.2431638279770369</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.06358745201516751</v>
+      </c>
+      <c r="H98">
+        <v>-0.2971242825057781</v>
+      </c>
+      <c r="I98">
+        <v>-0.2011271989297954</v>
+      </c>
+      <c r="J98">
+        <v>0.1026262710040424</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.01867537978806328</v>
+        <v>-0.01300411936294058</v>
       </c>
       <c r="C101">
-        <v>-0.01988433849336206</v>
+        <v>-0.03282923877604702</v>
       </c>
       <c r="D101">
-        <v>0.02989961411246819</v>
+        <v>0.02264227146317087</v>
       </c>
       <c r="E101">
-        <v>-0.03114380977312411</v>
+        <v>0.06175956745348359</v>
       </c>
       <c r="F101">
-        <v>0.003431661788766311</v>
+        <v>0.02984881628067446</v>
       </c>
       <c r="G101">
-        <v>-0.03769848775143091</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.0007944242321813929</v>
+      </c>
+      <c r="H101">
+        <v>0.1183262711947604</v>
+      </c>
+      <c r="I101">
+        <v>0.01011012598438916</v>
+      </c>
+      <c r="J101">
+        <v>0.01704593813071385</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>-0.1235002228356183</v>
+        <v>-0.1214552953063293</v>
       </c>
       <c r="C102">
-        <v>0.01069983956375778</v>
+        <v>-0.02050538543540146</v>
       </c>
       <c r="D102">
-        <v>0.01570682784665604</v>
+        <v>0.05326330741570872</v>
       </c>
       <c r="E102">
-        <v>0.08043482752074257</v>
+        <v>-0.08219358711981974</v>
       </c>
       <c r="F102">
-        <v>0.02174221383263381</v>
+        <v>0.004900969674547634</v>
       </c>
       <c r="G102">
-        <v>-0.01713353580758109</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.04121339180413766</v>
+      </c>
+      <c r="H102">
+        <v>-0.004502520760329144</v>
+      </c>
+      <c r="I102">
+        <v>0.005130172547413894</v>
+      </c>
+      <c r="J102">
+        <v>-0.06699625399405484</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>-0.01527048311840051</v>
+        <v>-0.02293090582308665</v>
       </c>
       <c r="C103">
-        <v>-0.003198569938511272</v>
+        <v>-0.003984892530358529</v>
       </c>
       <c r="D103">
-        <v>-0.0005036578329815273</v>
+        <v>0.01491719480117019</v>
       </c>
       <c r="E103">
-        <v>0.03050357392308392</v>
+        <v>-0.01395836191948446</v>
       </c>
       <c r="F103">
-        <v>-0.01146556902689848</v>
+        <v>0.003327361307422892</v>
       </c>
       <c r="G103">
-        <v>0.01682617803322351</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.0152806496403335</v>
+      </c>
+      <c r="H103">
+        <v>0.003443284695784529</v>
+      </c>
+      <c r="I103">
+        <v>0.03053100769418644</v>
+      </c>
+      <c r="J103">
+        <v>-0.008207623324460319</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
